--- a/design/MiniTemplate/Excels/#lang.xlsx
+++ b/design/MiniTemplate/Excels/#lang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiliBili\Work\slime\design\MiniTemplate\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9D1020-3D99-406A-ABA5-5F2E2DA65015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB6316D-D633-4778-AF0C-A0D9E2EBDAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8232" yWindow="2676" windowWidth="19764" windowHeight="13884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2136" yWindow="1092" windowWidth="19764" windowHeight="13884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4146" uniqueCount="3212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4146" uniqueCount="3216">
   <si>
     <t>##var</t>
   </si>
@@ -46205,6 +46205,97 @@
   </si>
   <si>
     <t>ゲーム開始：スライム一匹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有生物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概率吞噬敌人获得新的技能</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转生超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>99</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>199</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次后转生获得的属性会大幅下降</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拟态只会拟态成灵属性最高或无属性的生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转生3次后，史莱姆会获得专属技能“解析”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -46324,7 +46415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -46345,6 +46436,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -46652,9 +46746,9 @@
   </sheetPr>
   <dimension ref="A1:H592"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A555" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F570" sqref="F570"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C596" sqref="C596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -60062,7 +60156,7 @@
     </row>
     <row r="583" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B583" t="s">
-        <v>1167</v>
+        <v>3215</v>
       </c>
       <c r="C583" t="s">
         <v>1167</v>
@@ -60177,7 +60271,7 @@
     </row>
     <row r="588" spans="2:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B588" s="9" t="s">
-        <v>1185</v>
+        <v>3214</v>
       </c>
       <c r="C588" s="9" t="s">
         <v>1185</v>
@@ -60245,8 +60339,8 @@
       </c>
     </row>
     <row r="591" spans="2:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B591" s="3" t="s">
-        <v>1181</v>
+      <c r="B591" s="10" t="s">
+        <v>3212</v>
       </c>
       <c r="C591" s="3" t="s">
         <v>1181</v>
@@ -60268,8 +60362,8 @@
       </c>
     </row>
     <row r="592" spans="2:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B592" s="10" t="s">
-        <v>1184</v>
+      <c r="B592" s="14" t="s">
+        <v>3213</v>
       </c>
       <c r="C592" s="10" t="s">
         <v>1184</v>

--- a/design/MiniTemplate/Excels/#lang.xlsx
+++ b/design/MiniTemplate/Excels/#lang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiliBili\Work\slime\design\MiniTemplate\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31544E5D-E5E9-4F4C-ACCE-87BD4CD01462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BF0B68-7674-4930-A382-F35005F4D308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4068" yWindow="1344" windowWidth="23064" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4160" uniqueCount="3229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4342" uniqueCount="3381">
   <si>
     <t>##var</t>
   </si>
@@ -46682,13 +46682,1475 @@
       <t>리셋됩니다</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽挑战</t>
+  </si>
+  <si>
+    <t>删除存档</t>
+  </si>
+  <si>
+    <t>处理存档不兼容问题，慎用</t>
+  </si>
+  <si>
+    <t>应用</t>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>字体</t>
+  </si>
+  <si>
+    <t>提升拟态成功率5%</t>
+  </si>
+  <si>
+    <t>刷新</t>
+  </si>
+  <si>
+    <t>详情</t>
+  </si>
+  <si>
+    <t>不要</t>
+  </si>
+  <si>
+    <t>Endless Challenge</t>
+  </si>
+  <si>
+    <t>無盡挑戰</t>
+  </si>
+  <si>
+    <t>無限チャレンジ</t>
+  </si>
+  <si>
+    <r>
+      <t>무한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>도전</t>
+    </r>
+  </si>
+  <si>
+    <t>Thử thách vô tận</t>
+  </si>
+  <si>
+    <t>Delete Save</t>
+  </si>
+  <si>
+    <t>刪除存檔</t>
+  </si>
+  <si>
+    <t>セーブデータを削除</t>
+  </si>
+  <si>
+    <r>
+      <t>저장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Xóa dữ liệu l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u</t>
+    </r>
+  </si>
+  <si>
+    <t>Handle save incompatibility issues, use with caution</t>
+  </si>
+  <si>
+    <t>處理存檔不兼容問題，慎用</t>
+  </si>
+  <si>
+    <t>セーブデータの互換性問題を処理、慎重に使用</t>
+  </si>
+  <si>
+    <r>
+      <t>저장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>호환성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>문제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>처리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>신중히</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사용</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Xử lý vấn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ề không t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng thích dữ liệu l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u, sử dụng cẩn thận</t>
+    </r>
+  </si>
+  <si>
+    <t>Apply</t>
+  </si>
+  <si>
+    <t>應用</t>
+  </si>
+  <si>
+    <t>適用</t>
+  </si>
+  <si>
+    <t>적용</t>
+  </si>
+  <si>
+    <t>Áp dụng</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>語言</t>
+  </si>
+  <si>
+    <t>言語</t>
+  </si>
+  <si>
+    <t>언어</t>
+  </si>
+  <si>
+    <t>Ngôn ngữ</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>音樂</t>
+  </si>
+  <si>
+    <t>音楽</t>
+  </si>
+  <si>
+    <t>음악</t>
+  </si>
+  <si>
+    <t>Âm nhạc</t>
+  </si>
+  <si>
+    <t>効果音</t>
+  </si>
+  <si>
+    <t>효과음</t>
+  </si>
+  <si>
+    <t>Hiệu ứng âm thanh</t>
+  </si>
+  <si>
+    <t>Font</t>
+  </si>
+  <si>
+    <t>字體</t>
+  </si>
+  <si>
+    <t>フォント</t>
+  </si>
+  <si>
+    <t>폰트</t>
+  </si>
+  <si>
+    <t>Phông chữ</t>
+  </si>
+  <si>
+    <t>Increase mimicry success rate by 5%</t>
+  </si>
+  <si>
+    <t>提升擬態成功率5%</t>
+  </si>
+  <si>
+    <t>擬態成功率を5%アップ</t>
+  </si>
+  <si>
+    <r>
+      <t>모방</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>성공률</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>상승</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ă</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng tỷ lệ thành công biến hình 5%</t>
+    </r>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>リフレッシュ</t>
+  </si>
+  <si>
+    <t>새로고침</t>
+  </si>
+  <si>
+    <t>Làm mới</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>詳情</t>
+  </si>
+  <si>
+    <t>詳細</t>
+  </si>
+  <si>
+    <r>
+      <t>세부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+  </si>
+  <si>
+    <t>Chi tiết</t>
+  </si>
+  <si>
+    <t>Don't</t>
+  </si>
+  <si>
+    <t>しない</t>
+  </si>
+  <si>
+    <r>
+      <t>하지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>마세요</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ừng</t>
+    </r>
+  </si>
+  <si>
+    <t>重新开始</t>
+  </si>
+  <si>
+    <t>继续</t>
+  </si>
+  <si>
+    <t>第*回合</t>
+  </si>
+  <si>
+    <t>第*回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前生命值:</t>
+  </si>
+  <si>
+    <t>当前攻击力:</t>
+  </si>
+  <si>
+    <t>当前防御力:</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>Restart</t>
+  </si>
+  <si>
+    <t>重新開始</t>
+  </si>
+  <si>
+    <t>再スタート</t>
+  </si>
+  <si>
+    <r>
+      <t>다시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시작</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khởi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ộng lại</t>
+    </r>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>繼續</t>
+  </si>
+  <si>
+    <t>続ける</t>
+  </si>
+  <si>
+    <t>계속</t>
+  </si>
+  <si>
+    <t>Tiếp tục</t>
+  </si>
+  <si>
+    <t>Round *</t>
+  </si>
+  <si>
+    <t>第*ラウンド</t>
+  </si>
+  <si>
+    <r>
+      <t>제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>라운드</t>
+    </r>
+  </si>
+  <si>
+    <t>Vòng thứ *</t>
+  </si>
+  <si>
+    <t>Current HP:</t>
+  </si>
+  <si>
+    <t>當前生命值:</t>
+  </si>
+  <si>
+    <t>現在のHP:</t>
+  </si>
+  <si>
+    <r>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>생명력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Sinh lực hiện tại:</t>
+  </si>
+  <si>
+    <t>Current Attack:</t>
+  </si>
+  <si>
+    <t>當前攻擊力:</t>
+  </si>
+  <si>
+    <t>現在の攻撃力:</t>
+  </si>
+  <si>
+    <r>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>공격력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Tấn công hiện tại:</t>
+  </si>
+  <si>
+    <t>Current Defense:</t>
+  </si>
+  <si>
+    <t>當前防禦力:</t>
+  </si>
+  <si>
+    <t>現在の防御力:</t>
+  </si>
+  <si>
+    <r>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>방어력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Phòng thủ hiện tại:</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>等級</t>
+  </si>
+  <si>
+    <t>レベル</t>
+  </si>
+  <si>
+    <t>레벨</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cấp </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>スキル</t>
+  </si>
+  <si>
+    <t>스킬</t>
+  </si>
+  <si>
+    <r>
+      <t>Kỹ n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ă</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng</t>
+    </r>
+  </si>
+  <si>
+    <t>Sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF82D99F"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>手机</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF82D99F"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>游戏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现存档，是否继续游戏进度？</t>
+  </si>
+  <si>
+    <t>是否删除存档？</t>
+  </si>
+  <si>
+    <t>你失败了！</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>手機</t>
+  </si>
+  <si>
+    <t>携帯電話</t>
+  </si>
+  <si>
+    <t>휴대폰</t>
+  </si>
+  <si>
+    <r>
+      <t>Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iện thoại</t>
+    </r>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>遊戲</t>
+  </si>
+  <si>
+    <t>ゲーム</t>
+  </si>
+  <si>
+    <t>게임</t>
+  </si>
+  <si>
+    <r>
+      <t>Trò ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <t>Save file detected, continue game progress?</t>
+  </si>
+  <si>
+    <t>發現存檔，是否繼續遊戲進度？</t>
+  </si>
+  <si>
+    <t>セーブデータが見つかりました、ゲームの進行を続けますか？</t>
+  </si>
+  <si>
+    <r>
+      <t>저장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>파일이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>발견되었습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>진행을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>계속하시겠습니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Phát hiện tệp l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">u, có tiếp tục tiến </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ộ trò ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i không?</t>
+    </r>
+  </si>
+  <si>
+    <t>Delete save file?</t>
+  </si>
+  <si>
+    <t>是否刪除存檔？</t>
+  </si>
+  <si>
+    <t>セーブデータを削除しますか？</t>
+  </si>
+  <si>
+    <r>
+      <t>저장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>파일을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>삭제하시겠습니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Có xóa tệp l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u không?</t>
+    </r>
+  </si>
+  <si>
+    <t>You failed!</t>
+  </si>
+  <si>
+    <t>你失敗了！</t>
+  </si>
+  <si>
+    <t>あなたは失敗しました！</t>
+  </si>
+  <si>
+    <r>
+      <t>당신은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실패했습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bạn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ã thất bại!</t>
+    </r>
+  </si>
+  <si>
+    <t>You were offline for * seconds (up to one hour) and gained ^ experience!</t>
+  </si>
+  <si>
+    <t>你離線了 * 秒（最多一小時），獲得了 ^ 經驗！</t>
+  </si>
+  <si>
+    <t>あなたは * 秒間（最大1時間）オフラインで、^ 経験値を獲得しました！</t>
+  </si>
+  <si>
+    <t>당신은 *초 동안 (최대 1시간) 오프라인이었으며, ^ 경험치를 획득했습니다!</t>
+  </si>
+  <si>
+    <r>
+      <t>Bạn đã ngắt kết nối * giây (tối đa một giờ) và nhận đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc ^ kinh nghiệm!</t>
+    </r>
+  </si>
+  <si>
+    <t>你离线了 * 秒（最多一小时），获得了 ^ 经验！</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46799,6 +48261,25 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFBDBDBD"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFBDBDBD"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF82D99F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -46820,7 +48301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -46847,6 +48328,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -47152,11 +48635,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M603"/>
+  <dimension ref="A1:M626"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E600" sqref="E600"/>
+      <pane ySplit="2" topLeftCell="A612" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D626" sqref="D626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -60843,11 +62326,628 @@
       <c r="L594"/>
       <c r="M594"/>
     </row>
+    <row r="595" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B595" s="16" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C595" s="16" t="s">
+        <v>3229</v>
+      </c>
+      <c r="D595" t="s">
+        <v>3241</v>
+      </c>
+      <c r="E595" t="s">
+        <v>3242</v>
+      </c>
+      <c r="F595" t="s">
+        <v>3243</v>
+      </c>
+      <c r="G595" s="12" t="s">
+        <v>3244</v>
+      </c>
+      <c r="H595" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="596" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B596" s="16" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C596" s="16" t="s">
+        <v>3230</v>
+      </c>
+      <c r="D596" t="s">
+        <v>3246</v>
+      </c>
+      <c r="E596" t="s">
+        <v>3247</v>
+      </c>
+      <c r="F596" t="s">
+        <v>3248</v>
+      </c>
+      <c r="G596" s="12" t="s">
+        <v>3249</v>
+      </c>
+      <c r="H596" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="597" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B597" s="16" t="s">
+        <v>3231</v>
+      </c>
+      <c r="C597" s="16" t="s">
+        <v>3231</v>
+      </c>
+      <c r="D597" t="s">
+        <v>3251</v>
+      </c>
+      <c r="E597" t="s">
+        <v>3252</v>
+      </c>
+      <c r="F597" t="s">
+        <v>3253</v>
+      </c>
+      <c r="G597" s="12" t="s">
+        <v>3254</v>
+      </c>
+      <c r="H597" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="598" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B598" s="16" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C598" s="16" t="s">
+        <v>3232</v>
+      </c>
+      <c r="D598" t="s">
+        <v>3256</v>
+      </c>
+      <c r="E598" t="s">
+        <v>3257</v>
+      </c>
+      <c r="F598" t="s">
+        <v>3258</v>
+      </c>
+      <c r="G598" s="12" t="s">
+        <v>3259</v>
+      </c>
+      <c r="H598" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="599" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B599" s="16" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C599" s="16" t="s">
+        <v>3233</v>
+      </c>
+      <c r="D599" t="s">
+        <v>3261</v>
+      </c>
+      <c r="E599" t="s">
+        <v>3262</v>
+      </c>
+      <c r="F599" t="s">
+        <v>3263</v>
+      </c>
+      <c r="G599" s="12" t="s">
+        <v>3264</v>
+      </c>
+      <c r="H599" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="600" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B600" s="16" t="s">
+        <v>3234</v>
+      </c>
+      <c r="C600" s="16" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D600" t="s">
+        <v>3266</v>
+      </c>
+      <c r="E600" t="s">
+        <v>3267</v>
+      </c>
+      <c r="F600" t="s">
+        <v>3268</v>
+      </c>
+      <c r="G600" s="12" t="s">
+        <v>3269</v>
+      </c>
+      <c r="H600" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="601" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B601" s="16" t="s">
+        <v>3235</v>
+      </c>
+      <c r="C601" s="16" t="s">
+        <v>3235</v>
+      </c>
+      <c r="D601" t="s">
+        <v>3344</v>
+      </c>
+      <c r="E601" t="s">
+        <v>3235</v>
+      </c>
+      <c r="F601" t="s">
+        <v>3271</v>
+      </c>
+      <c r="G601" s="12" t="s">
+        <v>3272</v>
+      </c>
+      <c r="H601" t="s">
+        <v>3273</v>
+      </c>
+    </row>
     <row r="602" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G602" s="12"/>
+      <c r="B602" s="16" t="s">
+        <v>3236</v>
+      </c>
+      <c r="C602" s="16" t="s">
+        <v>3236</v>
+      </c>
+      <c r="D602" t="s">
+        <v>3274</v>
+      </c>
+      <c r="E602" t="s">
+        <v>3275</v>
+      </c>
+      <c r="F602" t="s">
+        <v>3276</v>
+      </c>
+      <c r="G602" s="12" t="s">
+        <v>3277</v>
+      </c>
+      <c r="H602" t="s">
+        <v>3278</v>
+      </c>
     </row>
     <row r="603" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G603" s="12"/>
+      <c r="B603" s="16" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C603" s="16" t="s">
+        <v>3237</v>
+      </c>
+      <c r="D603" t="s">
+        <v>3279</v>
+      </c>
+      <c r="E603" t="s">
+        <v>3280</v>
+      </c>
+      <c r="F603" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G603" s="12" t="s">
+        <v>3282</v>
+      </c>
+      <c r="H603" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="604" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B604" s="16" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C604" s="16" t="s">
+        <v>3238</v>
+      </c>
+      <c r="D604" t="s">
+        <v>3284</v>
+      </c>
+      <c r="E604" t="s">
+        <v>3238</v>
+      </c>
+      <c r="F604" t="s">
+        <v>3285</v>
+      </c>
+      <c r="G604" s="12" t="s">
+        <v>3286</v>
+      </c>
+      <c r="H604" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="605" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B605" s="16" t="s">
+        <v>3239</v>
+      </c>
+      <c r="C605" s="16" t="s">
+        <v>3239</v>
+      </c>
+      <c r="D605" t="s">
+        <v>3288</v>
+      </c>
+      <c r="E605" t="s">
+        <v>3289</v>
+      </c>
+      <c r="F605" t="s">
+        <v>3290</v>
+      </c>
+      <c r="G605" s="12" t="s">
+        <v>3291</v>
+      </c>
+      <c r="H605" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="606" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B606" s="16" t="s">
+        <v>3240</v>
+      </c>
+      <c r="C606" s="16" t="s">
+        <v>3240</v>
+      </c>
+      <c r="D606" t="s">
+        <v>3293</v>
+      </c>
+      <c r="E606" t="s">
+        <v>3240</v>
+      </c>
+      <c r="F606" t="s">
+        <v>3294</v>
+      </c>
+      <c r="G606" s="12" t="s">
+        <v>3295</v>
+      </c>
+      <c r="H606" s="13" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="607" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B607" s="16" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C607" s="16" t="s">
+        <v>3297</v>
+      </c>
+      <c r="D607" t="s">
+        <v>3306</v>
+      </c>
+      <c r="E607" t="s">
+        <v>3307</v>
+      </c>
+      <c r="F607" t="s">
+        <v>3308</v>
+      </c>
+      <c r="G607" s="12" t="s">
+        <v>3309</v>
+      </c>
+      <c r="H607" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="608" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B608" s="16" t="s">
+        <v>3298</v>
+      </c>
+      <c r="C608" s="16" t="s">
+        <v>3298</v>
+      </c>
+      <c r="D608" t="s">
+        <v>3311</v>
+      </c>
+      <c r="E608" t="s">
+        <v>3312</v>
+      </c>
+      <c r="F608" t="s">
+        <v>3313</v>
+      </c>
+      <c r="G608" s="12" t="s">
+        <v>3314</v>
+      </c>
+      <c r="H608" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="609" spans="2:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="B609" s="17" t="s">
+        <v>3300</v>
+      </c>
+      <c r="C609" s="17" t="s">
+        <v>3300</v>
+      </c>
+      <c r="D609" t="s">
+        <v>3316</v>
+      </c>
+      <c r="E609" t="s">
+        <v>3299</v>
+      </c>
+      <c r="F609" t="s">
+        <v>3317</v>
+      </c>
+      <c r="G609" s="12" t="s">
+        <v>3318</v>
+      </c>
+      <c r="H609" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="610" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B610" s="15" t="s">
+        <v>3301</v>
+      </c>
+      <c r="C610" s="15" t="s">
+        <v>3301</v>
+      </c>
+      <c r="D610" t="s">
+        <v>3320</v>
+      </c>
+      <c r="E610" t="s">
+        <v>3321</v>
+      </c>
+      <c r="F610" t="s">
+        <v>3322</v>
+      </c>
+      <c r="G610" s="12" t="s">
+        <v>3323</v>
+      </c>
+      <c r="H610" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="611" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B611" s="15" t="s">
+        <v>3302</v>
+      </c>
+      <c r="C611" s="15" t="s">
+        <v>3302</v>
+      </c>
+      <c r="D611" t="s">
+        <v>3325</v>
+      </c>
+      <c r="E611" t="s">
+        <v>3326</v>
+      </c>
+      <c r="F611" t="s">
+        <v>3327</v>
+      </c>
+      <c r="G611" s="12" t="s">
+        <v>3328</v>
+      </c>
+      <c r="H611" t="s">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="612" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B612" s="15" t="s">
+        <v>3303</v>
+      </c>
+      <c r="C612" s="15" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D612" t="s">
+        <v>3330</v>
+      </c>
+      <c r="E612" t="s">
+        <v>3331</v>
+      </c>
+      <c r="F612" t="s">
+        <v>3332</v>
+      </c>
+      <c r="G612" s="12" t="s">
+        <v>3333</v>
+      </c>
+      <c r="H612" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="613" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B613" s="16" t="s">
+        <v>3304</v>
+      </c>
+      <c r="C613" s="16" t="s">
+        <v>3304</v>
+      </c>
+      <c r="D613" t="s">
+        <v>3335</v>
+      </c>
+      <c r="E613" t="s">
+        <v>3336</v>
+      </c>
+      <c r="F613" t="s">
+        <v>3337</v>
+      </c>
+      <c r="G613" s="12" t="s">
+        <v>3338</v>
+      </c>
+      <c r="H613" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="614" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B614" s="16" t="s">
+        <v>3305</v>
+      </c>
+      <c r="C614" s="16" t="s">
+        <v>3305</v>
+      </c>
+      <c r="D614" t="s">
+        <v>3340</v>
+      </c>
+      <c r="E614" t="s">
+        <v>3305</v>
+      </c>
+      <c r="F614" t="s">
+        <v>3341</v>
+      </c>
+      <c r="G614" s="12" t="s">
+        <v>3342</v>
+      </c>
+      <c r="H614" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="615" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B615" s="15" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C615" s="15" t="s">
+        <v>3345</v>
+      </c>
+      <c r="D615" t="s">
+        <v>3350</v>
+      </c>
+      <c r="E615" t="s">
+        <v>3351</v>
+      </c>
+      <c r="F615" t="s">
+        <v>3352</v>
+      </c>
+      <c r="G615" s="12" t="s">
+        <v>3353</v>
+      </c>
+      <c r="H615" s="13" t="s">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="616" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B616" s="15" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C616" s="15" t="s">
+        <v>3346</v>
+      </c>
+      <c r="D616" t="s">
+        <v>3355</v>
+      </c>
+      <c r="E616" t="s">
+        <v>3356</v>
+      </c>
+      <c r="F616" t="s">
+        <v>3357</v>
+      </c>
+      <c r="G616" s="12" t="s">
+        <v>3358</v>
+      </c>
+      <c r="H616" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="617" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B617" s="15" t="s">
+        <v>3347</v>
+      </c>
+      <c r="C617" s="15" t="s">
+        <v>3347</v>
+      </c>
+      <c r="D617" t="s">
+        <v>3360</v>
+      </c>
+      <c r="E617" t="s">
+        <v>3361</v>
+      </c>
+      <c r="F617" t="s">
+        <v>3362</v>
+      </c>
+      <c r="G617" s="12" t="s">
+        <v>3363</v>
+      </c>
+      <c r="H617" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="618" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B618" s="15" t="s">
+        <v>3348</v>
+      </c>
+      <c r="C618" s="15" t="s">
+        <v>3348</v>
+      </c>
+      <c r="D618" t="s">
+        <v>3365</v>
+      </c>
+      <c r="E618" t="s">
+        <v>3366</v>
+      </c>
+      <c r="F618" t="s">
+        <v>3367</v>
+      </c>
+      <c r="G618" s="12" t="s">
+        <v>3368</v>
+      </c>
+      <c r="H618" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="619" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B619" s="16" t="s">
+        <v>3349</v>
+      </c>
+      <c r="C619" s="16" t="s">
+        <v>3349</v>
+      </c>
+      <c r="D619" t="s">
+        <v>3370</v>
+      </c>
+      <c r="E619" t="s">
+        <v>3371</v>
+      </c>
+      <c r="F619" t="s">
+        <v>3372</v>
+      </c>
+      <c r="G619" s="12" t="s">
+        <v>3373</v>
+      </c>
+      <c r="H619" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="620" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B620" s="15" t="s">
+        <v>3380</v>
+      </c>
+      <c r="C620" s="15" t="s">
+        <v>3380</v>
+      </c>
+      <c r="D620" t="s">
+        <v>3375</v>
+      </c>
+      <c r="E620" t="s">
+        <v>3376</v>
+      </c>
+      <c r="F620" t="s">
+        <v>3377</v>
+      </c>
+      <c r="G620" s="12" t="s">
+        <v>3378</v>
+      </c>
+      <c r="H620" s="12" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="621" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B621" s="15"/>
+      <c r="C621" s="15"/>
+      <c r="G621" s="12"/>
+      <c r="H621" s="12"/>
+    </row>
+    <row r="622" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B622" s="15"/>
+      <c r="C622" s="15"/>
+      <c r="G622" s="12"/>
+    </row>
+    <row r="623" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G623" s="12"/>
+    </row>
+    <row r="624" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F624" s="12"/>
+      <c r="G624" s="12"/>
+    </row>
+    <row r="625" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F625" s="12"/>
+      <c r="G625" s="12"/>
+    </row>
+    <row r="626" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F626" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/design/MiniTemplate/Excels/#lang.xlsx
+++ b/design/MiniTemplate/Excels/#lang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiliBili\Work\slime\design\MiniTemplate\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BF0B68-7674-4930-A382-F35005F4D308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD251D4-C597-4A4A-9B5B-B13C913403DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4068" yWindow="1344" windowWidth="23064" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4342" uniqueCount="3381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4377" uniqueCount="3411">
   <si>
     <t>##var</t>
   </si>
@@ -48144,6 +48144,664 @@
   </si>
   <si>
     <t>你离线了 * 秒（最多一小时），获得了 ^ 经验！</t>
+  </si>
+  <si>
+    <t>广告还未冷却!剩余时间：</t>
+  </si>
+  <si>
+    <t>加载广告，请稍后...</t>
+  </si>
+  <si>
+    <t>广告冷却：</t>
+  </si>
+  <si>
+    <t>激活血脉可选择品质</t>
+  </si>
+  <si>
+    <t>另存存档</t>
+  </si>
+  <si>
+    <t>Ad not yet cooled down! Remaining time:</t>
+  </si>
+  <si>
+    <t>廣告尚未冷卻！剩餘時間：</t>
+  </si>
+  <si>
+    <t>広告がまだクールダウンしていません！残り時間：</t>
+  </si>
+  <si>
+    <r>
+      <t>광고가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>아직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쿨다운되지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>않았습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>남은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Quảng cáo ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc làm mát! Thời gian còn lại:</t>
+    </r>
+  </si>
+  <si>
+    <t>Loading ad, please wait...</t>
+  </si>
+  <si>
+    <t>加載廣告，請稍後...</t>
+  </si>
+  <si>
+    <t>広告をロード中です、しばらくお待ちください...</t>
+  </si>
+  <si>
+    <r>
+      <t>광고를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>중입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>잠시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기다려</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ang tải quảng cáo, vui lòng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợi...</t>
+    </r>
+  </si>
+  <si>
+    <t>Ad cooldown:</t>
+  </si>
+  <si>
+    <t>廣告冷卻：</t>
+  </si>
+  <si>
+    <t>広告クールダウン：</t>
+  </si>
+  <si>
+    <r>
+      <t>광고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쿨다운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Thời gian làm mát quảng cáo:</t>
+  </si>
+  <si>
+    <t>Activating bloodline allows quality selection</t>
+  </si>
+  <si>
+    <t>激活血脈可選擇品質</t>
+  </si>
+  <si>
+    <t>血脈を活性化すると品質を選択できます</t>
+  </si>
+  <si>
+    <r>
+      <t>혈맥을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>활성화하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>품질을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>선택할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>있습니다</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kích hoạt huyết mạch cho phép chọn chất l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợng</t>
+    </r>
+  </si>
+  <si>
+    <t>Save as a new file</t>
+  </si>
+  <si>
+    <t>另存存檔</t>
+  </si>
+  <si>
+    <t>別名でセーブ</t>
+  </si>
+  <si>
+    <r>
+      <t>다른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이름으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>저장</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ới dạng tệp mới</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -48637,9 +49295,9 @@
   </sheetPr>
   <dimension ref="A1:M626"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A612" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D626" sqref="D626"/>
+      <selection pane="bottomLeft" activeCell="C635" sqref="C635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -62925,28 +63583,121 @@
       </c>
     </row>
     <row r="621" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B621" s="15"/>
-      <c r="C621" s="15"/>
-      <c r="G621" s="12"/>
-      <c r="H621" s="12"/>
+      <c r="B621" s="15" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C621" s="15" t="s">
+        <v>3381</v>
+      </c>
+      <c r="D621" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E621" t="s">
+        <v>3387</v>
+      </c>
+      <c r="F621" t="s">
+        <v>3388</v>
+      </c>
+      <c r="G621" s="12" t="s">
+        <v>3389</v>
+      </c>
+      <c r="H621" t="s">
+        <v>3390</v>
+      </c>
     </row>
     <row r="622" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B622" s="15"/>
-      <c r="C622" s="15"/>
-      <c r="G622" s="12"/>
+      <c r="B622" s="15" t="s">
+        <v>3382</v>
+      </c>
+      <c r="C622" s="15" t="s">
+        <v>3382</v>
+      </c>
+      <c r="D622" t="s">
+        <v>3391</v>
+      </c>
+      <c r="E622" t="s">
+        <v>3392</v>
+      </c>
+      <c r="F622" t="s">
+        <v>3393</v>
+      </c>
+      <c r="G622" s="12" t="s">
+        <v>3394</v>
+      </c>
+      <c r="H622" s="13" t="s">
+        <v>3395</v>
+      </c>
     </row>
     <row r="623" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G623" s="12"/>
+      <c r="B623" s="15" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C623" s="15" t="s">
+        <v>3383</v>
+      </c>
+      <c r="D623" t="s">
+        <v>3396</v>
+      </c>
+      <c r="E623" t="s">
+        <v>3397</v>
+      </c>
+      <c r="F623" t="s">
+        <v>3398</v>
+      </c>
+      <c r="G623" s="12" t="s">
+        <v>3399</v>
+      </c>
+      <c r="H623" t="s">
+        <v>3400</v>
+      </c>
     </row>
     <row r="624" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F624" s="12"/>
-      <c r="G624" s="12"/>
+      <c r="B624" s="16" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C624" s="16" t="s">
+        <v>3384</v>
+      </c>
+      <c r="D624" t="s">
+        <v>3401</v>
+      </c>
+      <c r="E624" t="s">
+        <v>3402</v>
+      </c>
+      <c r="F624" t="s">
+        <v>3403</v>
+      </c>
+      <c r="G624" s="12" t="s">
+        <v>3404</v>
+      </c>
+      <c r="H624" t="s">
+        <v>3405</v>
+      </c>
     </row>
-    <row r="625" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F625" s="12"/>
-      <c r="G625" s="12"/>
+    <row r="625" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B625" s="16" t="s">
+        <v>3385</v>
+      </c>
+      <c r="C625" s="16" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D625" t="s">
+        <v>3406</v>
+      </c>
+      <c r="E625" t="s">
+        <v>3407</v>
+      </c>
+      <c r="F625" t="s">
+        <v>3408</v>
+      </c>
+      <c r="G625" s="12" t="s">
+        <v>3409</v>
+      </c>
+      <c r="H625" t="s">
+        <v>3410</v>
+      </c>
     </row>
-    <row r="626" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F626" s="12"/>
     </row>
   </sheetData>
